--- a/solutions/azure/cloud/enterprise-landing-zone/presales/infrastructure-costs.xlsx
+++ b/solutions/azure/cloud/enterprise-landing-zone/presales/infrastructure-costs.xlsx
@@ -14,9 +14,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Sizing Guidelines'!$A$2:$F$12</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Infrastructure Costs'!$A$2:$K$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Infrastructure Costs'!$A$2:$K$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Credits'!$A$2:$D$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'3-Year Summary'!$A$2:$G$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'3-Year Summary'!$A$2:$G$6</definedName>
   </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
@@ -836,7 +836,7 @@
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>November 22, 2025</t>
+          <t>November 24, 2025</t>
         </is>
       </c>
     </row>
@@ -955,7 +955,7 @@
     <row r="3" ht="26" customHeight="1">
       <c r="A3" s="37" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B3" s="38" t="inlineStr">
@@ -987,7 +987,7 @@
     <row r="4" ht="26" customHeight="1">
       <c r="A4" s="40" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B4" s="41" t="inlineStr">
@@ -1019,7 +1019,7 @@
     <row r="5" ht="26" customHeight="1">
       <c r="A5" s="37" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B5" s="38" t="inlineStr">
@@ -1051,7 +1051,7 @@
     <row r="6" ht="26" customHeight="1">
       <c r="A6" s="40" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B6" s="41" t="inlineStr">
@@ -1083,7 +1083,7 @@
     <row r="7" ht="26" customHeight="1">
       <c r="A7" s="37" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B7" s="38" t="inlineStr">
@@ -1115,7 +1115,7 @@
     <row r="8" ht="26" customHeight="1">
       <c r="A8" s="40" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B8" s="41" t="inlineStr">
@@ -1287,7 +1287,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -1376,7 +1376,7 @@
     <row r="3" ht="26" customHeight="1">
       <c r="A3" s="43" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B3" s="44" t="inlineStr">
@@ -1425,7 +1425,7 @@
     <row r="4" ht="26" customHeight="1">
       <c r="A4" s="47" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B4" s="48" t="inlineStr">
@@ -1474,7 +1474,7 @@
     <row r="5" ht="26" customHeight="1">
       <c r="A5" s="43" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B5" s="44" t="inlineStr">
@@ -1523,7 +1523,7 @@
     <row r="6" ht="26" customHeight="1">
       <c r="A6" s="47" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B6" s="48" t="inlineStr">
@@ -1572,7 +1572,7 @@
     <row r="7" ht="26" customHeight="1">
       <c r="A7" s="43" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B7" s="44" t="inlineStr">
@@ -1621,7 +1621,7 @@
     <row r="8" ht="26" customHeight="1">
       <c r="A8" s="47" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B8" s="48" t="inlineStr">
@@ -1670,7 +1670,7 @@
     <row r="9" ht="26" customHeight="1">
       <c r="A9" s="43" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B9" s="44" t="inlineStr">
@@ -1719,7 +1719,7 @@
     <row r="10" ht="26" customHeight="1">
       <c r="A10" s="47" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B10" s="48" t="inlineStr">
@@ -2109,330 +2109,36 @@
       </c>
     </row>
     <row r="18" ht="26" customHeight="1">
-      <c r="A18" s="47" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B18" s="48" t="inlineStr">
-        <is>
-          <t>Enterprise Architecture</t>
-        </is>
-      </c>
-      <c r="C18" s="48" t="inlineStr">
-        <is>
-          <t>Landing zone architecture and governance framework</t>
-        </is>
-      </c>
-      <c r="D18" s="49" t="n">
-        <v>120</v>
-      </c>
-      <c r="E18" s="48" t="inlineStr">
-        <is>
-          <t>Hours</t>
-        </is>
-      </c>
-      <c r="F18" s="50" t="n">
-        <v>225</v>
-      </c>
-      <c r="G18" s="50">
-        <f>D18*F18</f>
-        <v/>
-      </c>
-      <c r="H18" s="50">
-        <f>0</f>
-        <v/>
-      </c>
-      <c r="I18" s="50">
-        <f>0</f>
-        <v/>
-      </c>
-      <c r="J18" s="50">
-        <f>G18</f>
-        <v/>
-      </c>
-      <c r="K18" s="48" t="inlineStr">
-        <is>
-          <t>One-time design</t>
-        </is>
-      </c>
-    </row>
-    <row r="19" ht="26" customHeight="1">
-      <c r="A19" s="43" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B19" s="44" t="inlineStr">
-        <is>
-          <t>Landing Zone Implementation</t>
-        </is>
-      </c>
-      <c r="C19" s="44" t="inlineStr">
-        <is>
-          <t>Management groups subscription structure networking policies</t>
-        </is>
-      </c>
-      <c r="D19" s="45" t="n">
-        <v>240</v>
-      </c>
-      <c r="E19" s="44" t="inlineStr">
-        <is>
-          <t>Hours</t>
-        </is>
-      </c>
-      <c r="F19" s="46" t="n">
-        <v>200</v>
-      </c>
-      <c r="G19" s="46">
-        <f>D19*F19</f>
-        <v/>
-      </c>
-      <c r="H19" s="46">
-        <f>0</f>
-        <v/>
-      </c>
-      <c r="I19" s="46">
-        <f>0</f>
-        <v/>
-      </c>
-      <c r="J19" s="46">
-        <f>G19</f>
-        <v/>
-      </c>
-      <c r="K19" s="44" t="inlineStr">
-        <is>
-          <t>One-time implementation</t>
-        </is>
-      </c>
-    </row>
-    <row r="20" ht="26" customHeight="1">
-      <c r="A20" s="47" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B20" s="48" t="inlineStr">
-        <is>
-          <t>Security Compliance Setup</t>
-        </is>
-      </c>
-      <c r="C20" s="48" t="inlineStr">
-        <is>
-          <t>Azure Policy Azure Sentinel RBAC configuration</t>
-        </is>
-      </c>
-      <c r="D20" s="49" t="n">
-        <v>80</v>
-      </c>
-      <c r="E20" s="48" t="inlineStr">
-        <is>
-          <t>Hours</t>
-        </is>
-      </c>
-      <c r="F20" s="50" t="n">
-        <v>200</v>
-      </c>
-      <c r="G20" s="50">
-        <f>D20*F20</f>
-        <v/>
-      </c>
-      <c r="H20" s="50">
-        <f>0</f>
-        <v/>
-      </c>
-      <c r="I20" s="50">
-        <f>0</f>
-        <v/>
-      </c>
-      <c r="J20" s="50">
-        <f>G20</f>
-        <v/>
-      </c>
-      <c r="K20" s="48" t="inlineStr">
-        <is>
-          <t>One-time setup</t>
-        </is>
-      </c>
-    </row>
-    <row r="21" ht="26" customHeight="1">
-      <c r="A21" s="43" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B21" s="44" t="inlineStr">
-        <is>
-          <t>Network Implementation</t>
-        </is>
-      </c>
-      <c r="C21" s="44" t="inlineStr">
-        <is>
-          <t>Hub-spoke topology Azure Firewall Private DNS zones</t>
-        </is>
-      </c>
-      <c r="D21" s="45" t="n">
-        <v>120</v>
-      </c>
-      <c r="E21" s="44" t="inlineStr">
-        <is>
-          <t>Hours</t>
-        </is>
-      </c>
-      <c r="F21" s="46" t="n">
-        <v>200</v>
-      </c>
-      <c r="G21" s="46">
-        <f>D21*F21</f>
-        <v/>
-      </c>
-      <c r="H21" s="46">
-        <f>0</f>
-        <v/>
-      </c>
-      <c r="I21" s="46">
-        <f>0</f>
-        <v/>
-      </c>
-      <c r="J21" s="46">
-        <f>G21</f>
-        <v/>
-      </c>
-      <c r="K21" s="44" t="inlineStr">
-        <is>
-          <t>One-time network build</t>
-        </is>
-      </c>
-    </row>
-    <row r="22" ht="26" customHeight="1">
-      <c r="A22" s="47" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B22" s="48" t="inlineStr">
-        <is>
-          <t>Identity Access Management</t>
-        </is>
-      </c>
-      <c r="C22" s="48" t="inlineStr">
-        <is>
-          <t>Azure AD integration RBAC design Conditional Access</t>
-        </is>
-      </c>
-      <c r="D22" s="49" t="n">
-        <v>60</v>
-      </c>
-      <c r="E22" s="48" t="inlineStr">
-        <is>
-          <t>Hours</t>
-        </is>
-      </c>
-      <c r="F22" s="50" t="n">
-        <v>200</v>
-      </c>
-      <c r="G22" s="50">
-        <f>D22*F22</f>
-        <v/>
-      </c>
-      <c r="H22" s="50">
-        <f>0</f>
-        <v/>
-      </c>
-      <c r="I22" s="50">
-        <f>0</f>
-        <v/>
-      </c>
-      <c r="J22" s="50">
-        <f>G22</f>
-        <v/>
-      </c>
-      <c r="K22" s="48" t="inlineStr">
-        <is>
-          <t>One-time IAM setup</t>
-        </is>
-      </c>
-    </row>
-    <row r="23" ht="26" customHeight="1">
-      <c r="A23" s="43" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B23" s="44" t="inlineStr">
-        <is>
-          <t>Training Knowledge Transfer</t>
-        </is>
-      </c>
-      <c r="C23" s="44" t="inlineStr">
-        <is>
-          <t>Admin training and operational runbooks</t>
-        </is>
-      </c>
-      <c r="D23" s="45" t="n">
-        <v>40</v>
-      </c>
-      <c r="E23" s="44" t="inlineStr">
-        <is>
-          <t>Hours</t>
-        </is>
-      </c>
-      <c r="F23" s="46" t="n">
-        <v>175</v>
-      </c>
-      <c r="G23" s="46">
-        <f>D23*F23</f>
-        <v/>
-      </c>
-      <c r="H23" s="46">
-        <f>0</f>
-        <v/>
-      </c>
-      <c r="I23" s="46">
-        <f>0</f>
-        <v/>
-      </c>
-      <c r="J23" s="46">
-        <f>G23</f>
-        <v/>
-      </c>
-      <c r="K23" s="44" t="inlineStr">
-        <is>
-          <t>One-time training</t>
-        </is>
-      </c>
-    </row>
-    <row r="24" ht="26" customHeight="1">
-      <c r="A24" s="51" t="inlineStr">
+      <c r="A18" s="51" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="B24" s="52" t="n"/>
-      <c r="C24" s="52" t="n"/>
-      <c r="D24" s="52" t="n"/>
-      <c r="E24" s="52" t="n"/>
-      <c r="F24" s="52" t="n"/>
-      <c r="G24" s="53">
-        <f>SUM(G3:G23)</f>
-        <v/>
-      </c>
-      <c r="H24" s="53">
-        <f>SUM(H3:H23)</f>
-        <v/>
-      </c>
-      <c r="I24" s="53">
-        <f>SUM(I3:I23)</f>
-        <v/>
-      </c>
-      <c r="J24" s="53">
-        <f>SUM(J3:J23)</f>
-        <v/>
-      </c>
-      <c r="K24" s="52" t="n"/>
+      <c r="B18" s="52" t="n"/>
+      <c r="C18" s="52" t="n"/>
+      <c r="D18" s="52" t="n"/>
+      <c r="E18" s="52" t="n"/>
+      <c r="F18" s="52" t="n"/>
+      <c r="G18" s="53">
+        <f>SUM(G3:G17)</f>
+        <v/>
+      </c>
+      <c r="H18" s="53">
+        <f>SUM(H3:H17)</f>
+        <v/>
+      </c>
+      <c r="I18" s="53">
+        <f>SUM(I3:I17)</f>
+        <v/>
+      </c>
+      <c r="J18" s="53">
+        <f>SUM(J3:J17)</f>
+        <v/>
+      </c>
+      <c r="K18" s="52" t="n"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:K24"/>
+  <autoFilter ref="A2:K18"/>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
   </mergeCells>
@@ -2493,7 +2199,7 @@
     <row r="3" ht="26" customHeight="1">
       <c r="A3" s="43" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B3" s="44" t="inlineStr">
@@ -2553,7 +2259,7 @@
     <row r="6" ht="26" customHeight="1">
       <c r="A6" s="47" t="inlineStr">
         <is>
-          <t>Hardware/Equipment</t>
+          <t>Hardware</t>
         </is>
       </c>
       <c r="B6" s="48" t="inlineStr">
@@ -2605,7 +2311,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -2670,7 +2376,7 @@
     <row r="3" ht="26" customHeight="1">
       <c r="A3" s="43" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B3" s="46">
@@ -2761,69 +2467,38 @@
       </c>
     </row>
     <row r="6" ht="26" customHeight="1">
-      <c r="A6" s="47" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B6" s="50">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A6,'Infrastructure Costs'!$G:$G)</f>
-        <v/>
-      </c>
-      <c r="C6" s="50">
-        <f>SUMIF(Credits!$A:$A,A6,Credits!$C:$C)</f>
-        <v/>
-      </c>
-      <c r="D6" s="50">
-        <f>B6+C6</f>
-        <v/>
-      </c>
-      <c r="E6" s="50">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A6,'Infrastructure Costs'!$H:$H)</f>
-        <v/>
-      </c>
-      <c r="F6" s="50">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A6,'Infrastructure Costs'!$I:$I)</f>
-        <v/>
-      </c>
-      <c r="G6" s="50">
-        <f>D6+E6+F6</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="26" customHeight="1">
-      <c r="A7" s="51" t="inlineStr">
+      <c r="A6" s="51" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="B7" s="53">
-        <f>SUM(B3:B6)</f>
-        <v/>
-      </c>
-      <c r="C7" s="53">
-        <f>SUM(C3:C6)</f>
-        <v/>
-      </c>
-      <c r="D7" s="53">
-        <f>SUM(D3:D6)</f>
-        <v/>
-      </c>
-      <c r="E7" s="53">
-        <f>SUM(E3:E6)</f>
-        <v/>
-      </c>
-      <c r="F7" s="53">
-        <f>SUM(F3:F6)</f>
-        <v/>
-      </c>
-      <c r="G7" s="53">
-        <f>SUM(G3:G6)</f>
+      <c r="B6" s="53">
+        <f>SUM(B3:B5)</f>
+        <v/>
+      </c>
+      <c r="C6" s="53">
+        <f>SUM(C3:C5)</f>
+        <v/>
+      </c>
+      <c r="D6" s="53">
+        <f>SUM(D3:D5)</f>
+        <v/>
+      </c>
+      <c r="E6" s="53">
+        <f>SUM(E3:E5)</f>
+        <v/>
+      </c>
+      <c r="F6" s="53">
+        <f>SUM(F3:F5)</f>
+        <v/>
+      </c>
+      <c r="G6" s="53">
+        <f>SUM(G3:G5)</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:G7"/>
+  <autoFilter ref="A2:G6"/>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
